--- a/Rev P/JLC BOM.xlsx
+++ b/Rev P/JLC BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://case0-my.sharepoint.com/personal/mhg42_case_edu/Documents/Documents/Github/MeRCIS-Lab/Rev P/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{A4D94D23-1F75-4C0D-A248-39010BFF6D12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D2ABDB36-D7B1-4281-A308-EC85622E97EE}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{A4D94D23-1F75-4C0D-A248-39010BFF6D12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{565C376C-3DB9-4199-A78D-380CFE2C7F38}"/>
   <bookViews>
-    <workbookView xWindow="23810" yWindow="3760" windowWidth="28800" windowHeight="15460" xr2:uid="{9C7987DB-7A13-4C42-A950-1D94832B9728}"/>
+    <workbookView xWindow="9600" yWindow="990" windowWidth="28800" windowHeight="15460" xr2:uid="{9C7987DB-7A13-4C42-A950-1D94832B9728}"/>
   </bookViews>
   <sheets>
     <sheet name="Transconductance Card BOM" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
   <si>
     <t>AD5551</t>
   </si>
@@ -312,89 +312,112 @@
     <t>LCSC Part #</t>
   </si>
   <si>
-    <t>CL21B103KBANNNC</t>
-  </si>
-  <si>
-    <t>C1210C104KCRAC7800</t>
-  </si>
-  <si>
-    <t>CC0805KRX7R9BB104</t>
-  </si>
-  <si>
-    <t>CL21B105KBFNNNE</t>
-  </si>
-  <si>
-    <t>CL21B102KBCNNNC</t>
-  </si>
-  <si>
-    <t>1206W4F1002T5E</t>
-  </si>
-  <si>
-    <t>1206W4F3300T5E</t>
-  </si>
-  <si>
-    <t>1206W4F1003T5E</t>
-  </si>
-  <si>
-    <t>1206W4F1000T5E</t>
-  </si>
-  <si>
-    <t>CL31A106KBHNNNE</t>
-  </si>
-  <si>
-    <t>CL21A106KAYNNNE</t>
-  </si>
-  <si>
-    <t>1206W4F1001T5</t>
-  </si>
-  <si>
-    <t>25121WF100KT4E</t>
-  </si>
-  <si>
-    <t>extend?</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>1206W4F2200T5E</t>
-  </si>
-  <si>
-    <t>1206W4F2001T5E</t>
-  </si>
-  <si>
-    <t>VE-471M1ETR-1010</t>
-  </si>
-  <si>
     <t>IC1, IC2</t>
   </si>
   <si>
-    <t>SN74LS00DR</t>
-  </si>
-  <si>
-    <t>SN74LS07DRG4</t>
-  </si>
-  <si>
-    <t>1206W4F9101T5E</t>
-  </si>
-  <si>
-    <t>IRF9Z24NSTRLPBF</t>
-  </si>
-  <si>
-    <t>LM324DT</t>
-  </si>
-  <si>
-    <t>TLC272CDR</t>
+    <t>C141218</t>
+  </si>
+  <si>
+    <t>C74558</t>
+  </si>
+  <si>
+    <t>C15850</t>
+  </si>
+  <si>
+    <t>C11254</t>
+  </si>
+  <si>
+    <t>C134375</t>
+  </si>
+  <si>
+    <t>C39051</t>
+  </si>
+  <si>
+    <t>C18025</t>
+  </si>
+  <si>
+    <t>C6801</t>
+  </si>
+  <si>
+    <t>C17930</t>
+  </si>
+  <si>
+    <t>C39232</t>
+  </si>
+  <si>
+    <t>C17957</t>
+  </si>
+  <si>
+    <t>C6982</t>
+  </si>
+  <si>
+    <t>C71035</t>
+  </si>
+  <si>
+    <t>C4410</t>
+  </si>
+  <si>
+    <t>C17902</t>
+  </si>
+  <si>
+    <t>C28323</t>
+  </si>
+  <si>
+    <t>C17900</t>
+  </si>
+  <si>
+    <t>C17901</t>
+  </si>
+  <si>
+    <t>C46653</t>
+  </si>
+  <si>
+    <t>C49678</t>
+  </si>
+  <si>
+    <t>C1710</t>
+  </si>
+  <si>
+    <t>C17944</t>
+  </si>
+  <si>
+    <t>C35216</t>
+  </si>
+  <si>
+    <t>C3350</t>
+  </si>
+  <si>
+    <t>C169781</t>
+  </si>
+  <si>
+    <t>EXTEND PADS FOR SOLDERING</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>pads good</t>
+  </si>
+  <si>
+    <t>NOTE: IC2 should be replaced with the SN7438 due to sink current requirements to fully activate SSRs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -417,17 +440,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -455,12 +484,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{4E81239D-F243-4FED-BE9E-251E43EC0729}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="15" unboundColumnsRight="1">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="16" unboundColumnsRight="2">
+    <queryTableFields count="5">
       <queryTableField id="2" name="Value" tableColumnId="2"/>
       <queryTableField id="5" name="Parts" tableColumnId="5"/>
       <queryTableField id="4" name="Package" tableColumnId="4"/>
       <queryTableField id="14" dataBound="0" tableColumnId="13"/>
+      <queryTableField id="15" dataBound="0" tableColumnId="1"/>
     </queryTableFields>
     <queryTableDeletedFields count="9">
       <deletedField name="Device"/>
@@ -478,13 +508,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3D77CCC-1859-49C3-9FBB-ACF2A5EEB23E}" name="Transconductance_Card_BOM" displayName="Transconductance_Card_BOM" ref="A1:D35" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D35" xr:uid="{DE93DEFA-FEC1-4280-BC85-439AC49EEB52}"/>
-  <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{E5C1BA28-826F-4EB5-8AB4-0C11F2585CAB}" uniqueName="2" name="Comment" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{496378E1-F705-40CE-872E-F363DD9FB839}" uniqueName="5" name="Designator" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{BA324015-38B0-4C07-BDB3-2A0E1D71E073}" uniqueName="4" name="Footprint" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{659DAFF8-59A1-4832-8D03-716726540337}" uniqueName="13" name="LCSC Part #" queryTableFieldId="14" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3D77CCC-1859-49C3-9FBB-ACF2A5EEB23E}" name="Transconductance_Card_BOM" displayName="Transconductance_Card_BOM" ref="A1:E35" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E35" xr:uid="{DE93DEFA-FEC1-4280-BC85-439AC49EEB52}"/>
+  <tableColumns count="5">
+    <tableColumn id="2" xr3:uid="{E5C1BA28-826F-4EB5-8AB4-0C11F2585CAB}" uniqueName="2" name="Comment" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{496378E1-F705-40CE-872E-F363DD9FB839}" uniqueName="5" name="Designator" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{BA324015-38B0-4C07-BDB3-2A0E1D71E073}" uniqueName="4" name="Footprint" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{659DAFF8-59A1-4832-8D03-716726540337}" uniqueName="13" name="LCSC Part #" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1F6A5A5E-20AF-4002-AF3E-60577F6D6B42}" uniqueName="1" name="Column1" queryTableFieldId="15" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -790,7 +821,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -799,7 +830,7 @@
     <col min="2" max="2" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -816,7 +847,7 @@
         <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -830,6 +861,9 @@
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -841,9 +875,10 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
+      <c r="D3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -855,12 +890,10 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E4" t="s">
-        <v>102</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -872,9 +905,10 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
+      <c r="D5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -886,9 +920,10 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -900,9 +935,10 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
+      <c r="D7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -914,9 +950,10 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -928,9 +965,10 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
+      <c r="D9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -942,9 +980,10 @@
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>98</v>
-      </c>
+      <c r="D10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -956,9 +995,10 @@
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
+      <c r="D11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -970,9 +1010,10 @@
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
+      <c r="D12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -984,9 +1025,10 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
-        <v>92</v>
-      </c>
+      <c r="D13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -998,12 +1040,10 @@
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>102</v>
-      </c>
+      <c r="D14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -1015,9 +1055,10 @@
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
+      <c r="D15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -1030,6 +1071,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1041,12 +1083,10 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>102</v>
-      </c>
+      <c r="D17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -1059,6 +1099,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
@@ -1070,9 +1111,10 @@
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
+      <c r="D19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -1084,12 +1126,10 @@
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" t="s">
-        <v>102</v>
-      </c>
+      <c r="D20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -1101,12 +1141,10 @@
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" t="s">
-        <v>102</v>
-      </c>
+      <c r="D21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1119,22 +1157,23 @@
         <v>32</v>
       </c>
       <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" t="s">
-        <v>102</v>
+      <c r="D23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1147,12 +1186,10 @@
       <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" t="s">
-        <v>102</v>
-      </c>
+      <c r="D24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -1164,12 +1201,10 @@
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" t="s">
-        <v>102</v>
-      </c>
+      <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -1182,6 +1217,9 @@
         <v>56</v>
       </c>
       <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -1194,6 +1232,7 @@
         <v>59</v>
       </c>
       <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
@@ -1205,12 +1244,10 @@
       <c r="C28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>102</v>
-      </c>
+      <c r="D28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -1223,6 +1260,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -1234,12 +1272,10 @@
       <c r="C30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" t="s">
-        <v>102</v>
-      </c>
+      <c r="D30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -1252,6 +1288,9 @@
         <v>71</v>
       </c>
       <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1263,12 +1302,10 @@
       <c r="C32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" t="s">
-        <v>102</v>
-      </c>
+      <c r="D32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
@@ -1280,9 +1317,10 @@
       <c r="C33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D33" t="s">
-        <v>111</v>
-      </c>
+      <c r="D33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
@@ -1295,6 +1333,7 @@
         <v>79</v>
       </c>
       <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -1306,17 +1345,42 @@
       <c r="C35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" t="s">
-        <v>102</v>
-      </c>
+      <c r="D35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="javascript:void(0);" xr:uid="{7F722AAB-9D4D-4E68-B6CC-775A69DC707C}"/>
+    <hyperlink ref="D23" r:id="rId2" display="javascript:void(0);" xr:uid="{9544DD32-4FFF-4286-AD23-D99D966E7748}"/>
+    <hyperlink ref="D10" r:id="rId3" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL21A106KAYNNNE_10uF-106-10-25V_C15850.html/?href=jlc-SMT" xr:uid="{8C561754-98EC-4838-88E9-735D055DC9AC}"/>
+    <hyperlink ref="D14" r:id="rId4" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-25121WF100KT4E_C11254.html/?href=jlc-SMT" xr:uid="{FF40011E-A53E-455D-A8D4-8A7932DF8D5F}"/>
+    <hyperlink ref="D28" r:id="rId5" display="https://lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_DIODES_BAS70-04-7-F_BAS70-04-7-F_C134375.html/?href=jlc-SMT" xr:uid="{2D6EC15A-E5E9-4614-8806-FB0155FA72D6}"/>
+    <hyperlink ref="D32" r:id="rId6" display="https://lcsc.com/product-detail/Low-Dropout-Regulators-LDO_MICROCHIP_MCP1700T-3302E-TT_MCP1700T-3302E-TT_C39051.html/?href=jlc-SMT" xr:uid="{9DAAE77D-DB94-4667-867E-D2159E553EFE}"/>
+    <hyperlink ref="D25" r:id="rId7" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-1206W4F9101T5E_C18025.html/?href=jlc-SMT" xr:uid="{B53B99D2-BAB0-4AA9-9E78-B5E5D22CE29E}"/>
+    <hyperlink ref="D24" r:id="rId8" display="https://lcsc.com/product-detail/74-Series_TI_SN74LS07DRG4_SN74LS07DRG4_C6801.html/?href=jlc-SMT" xr:uid="{4E03C9C6-E22C-48D2-A5CD-649B173FD029}"/>
+    <hyperlink ref="D20" r:id="rId9" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-1206W4F3300T5E_C17930.html/?href=jlc-SMT" xr:uid="{8D8A16F9-C792-4E40-9962-238D974EC93F}"/>
+    <hyperlink ref="D9" r:id="rId10" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL32B106KAJNNNE_10uF-106-10-25V_C39232.html/?href=jlc-SMT" xr:uid="{7E52A9AE-11B9-4B6A-A6F5-B2CB201B305D}"/>
+    <hyperlink ref="D17" r:id="rId11" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-1206W4F2200T5E_C17957.html/?href=jlc-SMT" xr:uid="{0E356D6A-2619-4A4D-85D3-E15512339796}"/>
+    <hyperlink ref="D35" r:id="rId12" display="https://lcsc.com/product-detail/General-Purpose-Amplifiers_TI_TLC272IDRG4_TLC272IDRG4_C6982.html/?href=jlc-SMT" xr:uid="{00B44134-4BB0-458B-B1FE-ECE2944E888C}"/>
+    <hyperlink ref="D33" r:id="rId13" display="https://lcsc.com/product-detail/General-Purpose-Amplifiers_STMicroelectronics_LM324DT_LM324DT_C71035.html/?href=jlc-SMT" xr:uid="{ADE369A6-6B68-440F-A3B3-EA9C4FD8F430}"/>
+    <hyperlink ref="D11" r:id="rId14" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-1206W4F1001T5_C4410.html/?href=jlc-SMT" xr:uid="{16B135F5-220A-41E6-AE43-EF6CD3AAB171}"/>
+    <hyperlink ref="D8" r:id="rId15" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-1206W4F1002T5E_C17902.html/?href=jlc-SMT" xr:uid="{DE203CFC-EB2E-4F7F-80E9-FB2B6589C6D7}"/>
+    <hyperlink ref="D15" r:id="rId16" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL21B105KBFNNNE_1uF-105-10-50V_C28323.html/?href=jlc-SMT" xr:uid="{0B3A48E7-8E52-4DBE-9648-AAB797B081BF}"/>
+    <hyperlink ref="D6" r:id="rId17" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-1206W4F1003T5E_C17900.html/?href=jlc-SMT" xr:uid="{B719B99D-1B74-4A4D-817B-D6BD293D4F1A}"/>
+    <hyperlink ref="D7" r:id="rId18" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-1206W4F1000T5E_C17901.html/?href=jlc-SMT" xr:uid="{4CDA6B11-2C81-4A7D-A3B9-0BE67CB5EA69}"/>
+    <hyperlink ref="D13" r:id="rId19" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL21B102KBCNNNC_1nF-102-10-50V_C46653.html/?href=jlc-SMT" xr:uid="{71A86C00-98E9-49C1-8303-18FA68CD1627}"/>
+    <hyperlink ref="D5" r:id="rId20" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C49678.html/?href=jlc-SMT" xr:uid="{1F0DB969-3D83-4F7D-BDBB-B5CA1B2FCE2F}"/>
+    <hyperlink ref="D3" r:id="rId21" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL21B103KBANNNC_10nF-103-10-50V_C1710.html/?href=jlc-SMT" xr:uid="{AFE6702E-02CF-4FA9-8ECA-8A5326753587}"/>
+    <hyperlink ref="D19" r:id="rId22" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-1206W4F2001T5E_C17944.html/?href=jlc-SMT" xr:uid="{A5A24415-2BA8-43D4-916E-926D89088602}"/>
+    <hyperlink ref="D12" r:id="rId23" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL31B102KGFNNNE_1nF-102-10-500V_C35216.html/?href=jlc-SMT" xr:uid="{592D28A1-610B-476B-ACDD-657A8CC57961}"/>
+    <hyperlink ref="D21" r:id="rId24" display="https://lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-SMD_Honor-Elec-RVT1V471M1010_C3350.html/?href=jlc-SMT" xr:uid="{4C9094A7-8CCF-46A8-9581-B8D48EF95279}"/>
+    <hyperlink ref="D30" r:id="rId25" display="javascript:void(0);" xr:uid="{3C09C5F5-CBD1-4382-99A0-9B1FC484D20A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>
